--- a/LISTADO_PEDIDO_COMPRAS/data/output/1Pedido_Semana_14_06022026_interior.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/output/1Pedido_Semana_14_06022026_interior.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P136"/>
+  <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,14 @@
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
     <col width="12.5" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="10.5" customWidth="1" min="13" max="13"/>
-    <col width="9.699999999999999" customWidth="1" min="14" max="14"/>
-    <col width="11.5" customWidth="1" min="15" max="15"/>
-    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="10.5" customWidth="1" min="12" max="12"/>
+    <col width="9.699999999999999" customWidth="1" min="13" max="13"/>
+    <col width="11.5" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
+    <col width="11" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -549,27 +552,42 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Unidades Pedido</t>
+          <t>Diferencia Stock</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Diferencia Stock</t>
+          <t>Ventas Objetivo</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Ventas Objetivo</t>
+          <t>Beneficio Objetivo</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Beneficio Objetivo</t>
+          <t>Proveedor</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Proveedor</t>
+          <t>Pedido Corregido Stock</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Ventas Reales</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Tendencia Consumo</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Pedido Final</t>
         </is>
       </c>
     </row>
@@ -622,21 +640,30 @@
         <v>1</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>34.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>34.49</v>
-      </c>
-      <c r="O2" s="4" t="n">
         <v>20.49</v>
       </c>
-      <c r="P2" s="5" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">ASTROFLOR SL                                                                                                            </t>
         </is>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -688,21 +715,30 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>37.99</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>37.99</v>
-      </c>
-      <c r="O3" s="4" t="n">
         <v>23.99</v>
       </c>
-      <c r="P3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">ASTROFLOR SL                                                                                                            </t>
         </is>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -754,21 +790,30 @@
         <v>2</v>
       </c>
       <c r="L4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORMA ,S.C.C.L.                                                                                                         </t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="M4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CORMA ,S.C.C.L.                                                                                                         </t>
-        </is>
+      <c r="Q4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -820,21 +865,30 @@
         <v>4</v>
       </c>
       <c r="L5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>47.88</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORMA ,S.C.C.L.                                                                                                         </t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="M5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>47.88</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>30.12</v>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CORMA ,S.C.C.L.                                                                                                         </t>
-        </is>
+      <c r="Q5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -886,21 +940,30 @@
         <v>3</v>
       </c>
       <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>80.91</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORMA ,S.C.C.L.                                                                                                         </t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="M6" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>80.91</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CORMA ,S.C.C.L.                                                                                                         </t>
-        </is>
+      <c r="Q6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -952,21 +1015,30 @@
         <v>4</v>
       </c>
       <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESPINOSA VIVEROS E HIJOS SL                                                                                             </t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="M7" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ESPINOSA VIVEROS E HIJOS SL                                                                                             </t>
-        </is>
+      <c r="Q7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -1018,21 +1090,30 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESPINOSA VIVEROS E HIJOS SL                                                                                             </t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>58</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ESPINOSA VIVEROS E HIJOS SL                                                                                             </t>
-        </is>
+      <c r="Q8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1084,21 +1165,30 @@
         <v>9</v>
       </c>
       <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESPINOSA VIVEROS E HIJOS SL                                                                                             </t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="M9" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ESPINOSA VIVEROS E HIJOS SL                                                                                             </t>
-        </is>
+      <c r="Q9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1150,21 +1240,30 @@
         <v>4</v>
       </c>
       <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESPINOSA VIVEROS E HIJOS SL                                                                                             </t>
+        </is>
+      </c>
+      <c r="P10" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="M10" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ESPINOSA VIVEROS E HIJOS SL                                                                                             </t>
-        </is>
+      <c r="Q10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1216,21 +1315,30 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>4.99</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="O11" s="4" t="n">
         <v>2.97</v>
       </c>
-      <c r="P11" s="5" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">ESPINOSA VIVEROS E HIJOS SL                                                                                             </t>
         </is>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1282,21 +1390,30 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>23.9</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="O12" s="4" t="n">
         <v>15.31</v>
       </c>
-      <c r="P12" s="5" t="inlineStr">
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1348,21 +1465,30 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>55.98</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P13" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="O13" s="4" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="P13" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1414,21 +1540,30 @@
         <v>2</v>
       </c>
       <c r="L14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="M14" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="O14" s="4" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="P14" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1480,21 +1615,30 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>8.49</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="O15" s="4" t="n">
         <v>4.86</v>
       </c>
-      <c r="P15" s="5" t="inlineStr">
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1546,21 +1690,30 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P16" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="O16" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1612,21 +1765,30 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>12.97</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="O17" s="4" t="n">
         <v>7.81</v>
       </c>
-      <c r="P17" s="5" t="inlineStr">
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1678,21 +1840,30 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="4" t="n">
-        <v>17.98</v>
-      </c>
-      <c r="O18" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1744,21 +1915,30 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>4.99</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="O19" s="4" t="n">
         <v>3.02</v>
       </c>
-      <c r="P19" s="5" t="inlineStr">
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1810,21 +1990,30 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <v>9.99</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="O20" s="4" t="n">
         <v>5.42</v>
       </c>
-      <c r="P20" s="5" t="inlineStr">
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1876,21 +2065,30 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P21" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4" t="n">
-        <v>25.98</v>
-      </c>
-      <c r="O21" s="4" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1942,21 +2140,30 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4" t="n">
+        <v>4.99</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="O22" s="4" t="n">
         <v>3.29</v>
       </c>
-      <c r="P22" s="5" t="inlineStr">
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2008,21 +2215,30 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="O23" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P23" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="4" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="O23" s="4" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="P23" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2074,21 +2290,30 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <v>8.949999999999999</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="O24" s="4" t="n">
         <v>5.59</v>
       </c>
-      <c r="P24" s="5" t="inlineStr">
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2140,21 +2365,30 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="N25" s="4" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="O25" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P25" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="O25" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="P25" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2206,21 +2440,30 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="N26" s="4" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="O26" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P26" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="4" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="O26" s="4" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2272,21 +2515,30 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4" t="n">
+        <v>4.99</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="O27" s="4" t="n">
         <v>2.95</v>
       </c>
-      <c r="P27" s="5" t="inlineStr">
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2338,21 +2590,30 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4" t="n">
+        <v>4.5</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O28" s="4" t="n">
         <v>2.89</v>
       </c>
-      <c r="P28" s="5" t="inlineStr">
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2404,21 +2665,30 @@
         <v>4</v>
       </c>
       <c r="L29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="N29" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P29" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="M29" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" s="4" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="O29" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2470,21 +2740,30 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="N30" s="4" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="O30" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="4" t="n">
-        <v>59.98</v>
-      </c>
-      <c r="O30" s="4" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="P30" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2536,21 +2815,30 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M31" s="4" t="n">
+        <v>23.95</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="O31" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="P31" s="5" t="inlineStr">
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2602,21 +2890,30 @@
         <v>3</v>
       </c>
       <c r="L32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="N32" s="4" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="O32" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P32" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="M32" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" s="4" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="O32" s="4" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="P32" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -2668,21 +2965,30 @@
         <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P33" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -2734,21 +3040,30 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4" t="n">
+        <v>33.98</v>
+      </c>
+      <c r="N34" s="4" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="O34" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P34" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" s="4" t="n">
-        <v>33.98</v>
-      </c>
-      <c r="O34" s="4" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="P34" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2800,21 +3115,30 @@
         <v>1</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M35" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M35" s="4" t="n">
+        <v>17.99</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="O35" s="4" t="n">
         <v>11.03</v>
       </c>
-      <c r="P35" s="5" t="inlineStr">
+      <c r="O35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2866,21 +3190,30 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4" t="n">
+        <v>20.99</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="O36" s="4" t="n">
         <v>12.55</v>
       </c>
-      <c r="P36" s="5" t="inlineStr">
+      <c r="O36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P36" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2932,21 +3265,30 @@
         <v>2</v>
       </c>
       <c r="L37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4" t="n">
+        <v>79.95999999999999</v>
+      </c>
+      <c r="N37" s="4" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="O37" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P37" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="M37" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N37" s="4" t="n">
-        <v>79.95999999999999</v>
-      </c>
-      <c r="O37" s="4" t="n">
-        <v>47.98</v>
-      </c>
-      <c r="P37" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2998,21 +3340,30 @@
         <v>1</v>
       </c>
       <c r="L38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="N38" s="4" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="O38" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P38" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" s="4" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="O38" s="4" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="P38" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3064,21 +3415,30 @@
         <v>1</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M39" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M39" s="4" t="n">
+        <v>9.5</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O39" s="4" t="n">
         <v>5.4</v>
       </c>
-      <c r="P39" s="5" t="inlineStr">
+      <c r="O39" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3130,21 +3490,30 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M40" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M40" s="4" t="n">
+        <v>18.65</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="O40" s="4" t="n">
         <v>12.43</v>
       </c>
-      <c r="P40" s="5" t="inlineStr">
+      <c r="O40" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P40" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3196,21 +3565,30 @@
         <v>1</v>
       </c>
       <c r="L41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="N41" s="4" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="O41" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P41" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" s="4" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="O41" s="4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="P41" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -3262,21 +3640,30 @@
         <v>1</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M42" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4" t="n">
+        <v>6.99</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="O42" s="4" t="n">
         <v>4.52</v>
       </c>
-      <c r="P42" s="5" t="inlineStr">
+      <c r="O42" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P42" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3328,21 +3715,30 @@
         <v>1</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M43" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M43" s="4" t="n">
+        <v>9.99</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="O43" s="4" t="n">
         <v>6.07</v>
       </c>
-      <c r="P43" s="5" t="inlineStr">
+      <c r="O43" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -3394,21 +3790,30 @@
         <v>1</v>
       </c>
       <c r="L44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="N44" s="4" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="O44" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P44" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" s="4" t="n">
-        <v>29.97</v>
-      </c>
-      <c r="O44" s="4" t="n">
-        <v>18.24</v>
-      </c>
-      <c r="P44" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -3460,21 +3865,30 @@
         <v>1</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M45" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M45" s="4" t="n">
+        <v>7.39</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="O45" s="4" t="n">
         <v>4.48</v>
       </c>
-      <c r="P45" s="5" t="inlineStr">
+      <c r="O45" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P45" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -3526,21 +3940,30 @@
         <v>1</v>
       </c>
       <c r="L46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="N46" s="4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="O46" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P46" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" s="4" t="n">
-        <v>19.98</v>
-      </c>
-      <c r="O46" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="P46" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -3592,21 +4015,30 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M47" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M47" s="4" t="n">
+        <v>6.99</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="O47" s="4" t="n">
         <v>3.85</v>
       </c>
-      <c r="P47" s="5" t="inlineStr">
+      <c r="O47" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -3658,21 +4090,30 @@
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M48" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M48" s="4" t="n">
+        <v>12.99</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="O48" s="4" t="n">
         <v>7.58</v>
       </c>
-      <c r="P48" s="5" t="inlineStr">
+      <c r="O48" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P48" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -3724,21 +4165,30 @@
         <v>2</v>
       </c>
       <c r="L49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4" t="n">
+        <v>41.94</v>
+      </c>
+      <c r="N49" s="4" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="O49" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P49" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="M49" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N49" s="4" t="n">
-        <v>41.94</v>
-      </c>
-      <c r="O49" s="4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="P49" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -3790,21 +4240,30 @@
         <v>1</v>
       </c>
       <c r="L50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="N50" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="O50" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P50" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="O50" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="P50" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -3856,21 +4315,30 @@
         <v>1</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M51" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M51" s="4" t="n">
+        <v>4.99</v>
       </c>
       <c r="N51" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="O51" s="4" t="n">
         <v>2.54</v>
       </c>
-      <c r="P51" s="5" t="inlineStr">
+      <c r="O51" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FLOREAC                                                                                                                 </t>
         </is>
+      </c>
+      <c r="P51" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -3922,21 +4390,30 @@
         <v>1</v>
       </c>
       <c r="L52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="N52" s="4" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="O52" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P52" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" s="4" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="O52" s="4" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="P52" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLOREAC                                                                                                                 </t>
-        </is>
+      <c r="Q52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -3988,21 +4465,30 @@
         <v>1</v>
       </c>
       <c r="L53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="N53" s="4" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="O53" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P53" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" s="4" t="n">
-        <v>23.97</v>
-      </c>
-      <c r="O53" s="4" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="P53" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -4054,21 +4540,30 @@
         <v>1</v>
       </c>
       <c r="L54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4" t="n">
+        <v>122.97</v>
+      </c>
+      <c r="N54" s="4" t="n">
+        <v>73.78</v>
+      </c>
+      <c r="O54" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P54" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" s="4" t="n">
-        <v>122.97</v>
-      </c>
-      <c r="O54" s="4" t="n">
-        <v>73.78</v>
-      </c>
-      <c r="P54" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -4120,21 +4615,30 @@
         <v>1</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M55" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M55" s="4" t="n">
+        <v>5.95</v>
       </c>
       <c r="N55" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="O55" s="4" t="n">
         <v>3.44</v>
       </c>
-      <c r="P55" s="5" t="inlineStr">
+      <c r="O55" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
+      </c>
+      <c r="P55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -4186,21 +4690,30 @@
         <v>1</v>
       </c>
       <c r="L56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="4" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="N56" s="4" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="O56" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P56" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" s="4" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="O56" s="4" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="P56" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -4252,21 +4765,30 @@
         <v>3</v>
       </c>
       <c r="L57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4" t="n">
+        <v>31.92</v>
+      </c>
+      <c r="N57" s="4" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="O57" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P57" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="M57" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N57" s="4" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="O57" s="4" t="n">
-        <v>20.48</v>
-      </c>
-      <c r="P57" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -4318,21 +4840,30 @@
         <v>1</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M58" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M58" s="4" t="n">
+        <v>9.550000000000001</v>
       </c>
       <c r="N58" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="O58" s="4" t="n">
         <v>5.86</v>
       </c>
-      <c r="P58" s="5" t="inlineStr">
+      <c r="O58" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
+      </c>
+      <c r="P58" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -4384,21 +4915,30 @@
         <v>3</v>
       </c>
       <c r="L59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="4" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="N59" s="4" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="O59" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P59" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="M59" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N59" s="4" t="n">
-        <v>38.25</v>
-      </c>
-      <c r="O59" s="4" t="n">
-        <v>27.63</v>
-      </c>
-      <c r="P59" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -4450,21 +4990,30 @@
         <v>1</v>
       </c>
       <c r="L60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="4" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="N60" s="4" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="O60" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P60" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M60" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" s="4" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="O60" s="4" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="P60" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -4516,21 +5065,30 @@
         <v>2</v>
       </c>
       <c r="L61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="N61" s="4" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="O61" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P61" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="M61" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" s="4" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="O61" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="P61" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -4582,21 +5140,30 @@
         <v>1</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M62" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M62" s="4" t="n">
+        <v>4.95</v>
       </c>
       <c r="N62" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="O62" s="4" t="n">
         <v>3.03</v>
       </c>
-      <c r="P62" s="5" t="inlineStr">
+      <c r="O62" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
+      </c>
+      <c r="P62" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -4648,21 +5215,30 @@
         <v>1</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M63" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M63" s="4" t="n">
+        <v>33.75</v>
       </c>
       <c r="N63" s="4" t="n">
-        <v>33.75</v>
-      </c>
-      <c r="O63" s="4" t="n">
         <v>20.19</v>
       </c>
-      <c r="P63" s="5" t="inlineStr">
+      <c r="O63" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
+      </c>
+      <c r="P63" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -4714,21 +5290,30 @@
         <v>1</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M64" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M64" s="4" t="n">
+        <v>18.95</v>
       </c>
       <c r="N64" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="O64" s="4" t="n">
         <v>11.42</v>
       </c>
-      <c r="P64" s="5" t="inlineStr">
+      <c r="O64" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
+      </c>
+      <c r="P64" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -4780,21 +5365,30 @@
         <v>1</v>
       </c>
       <c r="L65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="4" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="N65" s="4" t="n">
+        <v>41.04</v>
+      </c>
+      <c r="O65" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P65" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M65" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" s="4" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="O65" s="4" t="n">
-        <v>41.04</v>
-      </c>
-      <c r="P65" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -4846,21 +5440,30 @@
         <v>1</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M66" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M66" s="4" t="n">
+        <v>11.99</v>
       </c>
       <c r="N66" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="O66" s="4" t="n">
         <v>8.06</v>
       </c>
-      <c r="P66" s="5" t="inlineStr">
+      <c r="O66" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
+      </c>
+      <c r="P66" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -4912,21 +5515,30 @@
         <v>2</v>
       </c>
       <c r="L67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="N67" s="4" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="O67" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P67" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="M67" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N67" s="4" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="O67" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="P67" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -4978,21 +5590,30 @@
         <v>1</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M68" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M68" s="4" t="n">
+        <v>5.25</v>
       </c>
       <c r="N68" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="O68" s="4" t="n">
         <v>3.24</v>
       </c>
-      <c r="P68" s="5" t="inlineStr">
+      <c r="O68" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
+      </c>
+      <c r="P68" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -5044,21 +5665,30 @@
         <v>1</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M69" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M69" s="4" t="n">
+        <v>7.99</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="O69" s="4" t="n">
         <v>4.64</v>
       </c>
-      <c r="P69" s="5" t="inlineStr">
+      <c r="O69" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
+      </c>
+      <c r="P69" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -5110,21 +5740,30 @@
         <v>1</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M70" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M70" s="4" t="n">
+        <v>9.5</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O70" s="4" t="n">
         <v>5.8</v>
       </c>
-      <c r="P70" s="5" t="inlineStr">
+      <c r="O70" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
+      </c>
+      <c r="P70" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -5176,21 +5815,30 @@
         <v>1</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M71" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M71" s="4" t="n">
+        <v>17.95</v>
       </c>
       <c r="N71" s="4" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="O71" s="4" t="n">
         <v>11.72</v>
       </c>
-      <c r="P71" s="5" t="inlineStr">
+      <c r="O71" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
+      </c>
+      <c r="P71" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -5242,21 +5890,30 @@
         <v>6</v>
       </c>
       <c r="L72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4" t="n">
+        <v>94.05</v>
+      </c>
+      <c r="N72" s="4" t="n">
+        <v>73.53</v>
+      </c>
+      <c r="O72" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P72" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="M72" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="N72" s="4" t="n">
-        <v>94.05</v>
-      </c>
-      <c r="O72" s="4" t="n">
-        <v>73.53</v>
-      </c>
-      <c r="P72" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
@@ -5308,21 +5965,30 @@
         <v>3</v>
       </c>
       <c r="L73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="N73" s="4" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="O73" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P73" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M73" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N73" s="4" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="O73" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="P73" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -5374,21 +6040,30 @@
         <v>2</v>
       </c>
       <c r="L74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="4" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="N74" s="4" t="n">
+        <v>29.58</v>
+      </c>
+      <c r="O74" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P74" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="M74" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N74" s="4" t="n">
-        <v>47.94</v>
-      </c>
-      <c r="O74" s="4" t="n">
-        <v>29.58</v>
-      </c>
-      <c r="P74" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -5440,21 +6115,30 @@
         <v>1</v>
       </c>
       <c r="L75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="N75" s="4" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="O75" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P75" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M75" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="O75" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="P75" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -5506,21 +6190,30 @@
         <v>1</v>
       </c>
       <c r="L76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" s="4" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="N76" s="4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="O76" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P76" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M76" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" s="4" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="O76" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="P76" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -5572,21 +6265,30 @@
         <v>1</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M77" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M77" s="4" t="n">
+        <v>22.95</v>
       </c>
       <c r="N77" s="4" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="O77" s="4" t="n">
         <v>14.78</v>
       </c>
-      <c r="P77" s="5" t="inlineStr">
+      <c r="O77" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
+      </c>
+      <c r="P77" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -5638,21 +6340,30 @@
         <v>3</v>
       </c>
       <c r="L78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" s="4" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="N78" s="4" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="O78" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P78" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M78" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N78" s="4" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="O78" s="4" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="P78" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" s="3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -5704,21 +6415,30 @@
         <v>1</v>
       </c>
       <c r="L79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="N79" s="4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="O79" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P79" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M79" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="O79" s="4" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="P79" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -5770,21 +6490,30 @@
         <v>3</v>
       </c>
       <c r="L80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="4" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="N80" s="4" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="O80" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+        </is>
+      </c>
+      <c r="P80" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M80" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N80" s="4" t="n">
-        <v>27.93</v>
-      </c>
-      <c r="O80" s="4" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="P80" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
-        </is>
+      <c r="Q80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" s="3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -5836,21 +6565,30 @@
         <v>1</v>
       </c>
       <c r="L81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N81" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LA PACHECA VIVEROS SL                                                                                                   </t>
+        </is>
+      </c>
+      <c r="P81" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M81" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O81" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P81" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LA PACHECA VIVEROS SL                                                                                                   </t>
-        </is>
+      <c r="Q81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -5902,21 +6640,30 @@
         <v>1</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M82" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M82" s="4" t="n">
+        <v>9.99</v>
       </c>
       <c r="N82" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="O82" s="4" t="n">
         <v>7.36</v>
       </c>
-      <c r="P82" s="5" t="inlineStr">
+      <c r="O82" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">LEMKES EXPORT BV                                                                                                        </t>
         </is>
+      </c>
+      <c r="P82" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -5968,21 +6715,30 @@
         <v>1</v>
       </c>
       <c r="L83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" s="4" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="N83" s="4" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="O83" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEMKES EXPORT BV                                                                                                        </t>
+        </is>
+      </c>
+      <c r="P83" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M83" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" s="4" t="n">
-        <v>47.98</v>
-      </c>
-      <c r="O83" s="4" t="n">
-        <v>33.32</v>
-      </c>
-      <c r="P83" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LEMKES EXPORT BV                                                                                                        </t>
-        </is>
+      <c r="Q83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -6034,21 +6790,30 @@
         <v>2</v>
       </c>
       <c r="L84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" s="4" t="n">
+        <v>233.7</v>
+      </c>
+      <c r="N84" s="4" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="O84" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
+        </is>
+      </c>
+      <c r="P84" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="M84" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N84" s="4" t="n">
-        <v>233.7</v>
-      </c>
-      <c r="O84" s="4" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="P84" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
-        </is>
+      <c r="Q84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -6100,21 +6865,30 @@
         <v>1</v>
       </c>
       <c r="L85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" s="4" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="N85" s="4" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="O85" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
+        </is>
+      </c>
+      <c r="P85" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M85" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" s="4" t="n">
-        <v>111.9</v>
-      </c>
-      <c r="O85" s="4" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="P85" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
-        </is>
+      <c r="Q85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -6166,21 +6940,30 @@
         <v>1</v>
       </c>
       <c r="L86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" s="4" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="N86" s="4" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="O86" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
+        </is>
+      </c>
+      <c r="P86" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M86" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" s="4" t="n">
-        <v>39.98</v>
-      </c>
-      <c r="O86" s="4" t="n">
-        <v>25.48</v>
-      </c>
-      <c r="P86" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
-        </is>
+      <c r="Q86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -6232,21 +7015,30 @@
         <v>1</v>
       </c>
       <c r="L87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" s="4" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="N87" s="4" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="O87" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
+        </is>
+      </c>
+      <c r="P87" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M87" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" s="4" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="O87" s="4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="P87" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
-        </is>
+      <c r="Q87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -6298,21 +7090,30 @@
         <v>1</v>
       </c>
       <c r="L88" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M88" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M88" s="4" t="n">
+        <v>7.49</v>
       </c>
       <c r="N88" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="O88" s="4" t="n">
         <v>4.78</v>
       </c>
-      <c r="P88" s="5" t="inlineStr">
+      <c r="O88" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
         </is>
+      </c>
+      <c r="P88" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -6364,21 +7165,30 @@
         <v>3</v>
       </c>
       <c r="L89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" s="4" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="N89" s="4" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="O89" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
+        </is>
+      </c>
+      <c r="P89" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="M89" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N89" s="4" t="n">
-        <v>23.92</v>
-      </c>
-      <c r="O89" s="4" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="P89" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
-        </is>
+      <c r="Q89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -6430,21 +7240,30 @@
         <v>1</v>
       </c>
       <c r="L90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" s="4" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="N90" s="4" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="O90" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
+        </is>
+      </c>
+      <c r="P90" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M90" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" s="4" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="O90" s="4" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="P90" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
-        </is>
+      <c r="Q90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -6496,21 +7315,30 @@
         <v>1</v>
       </c>
       <c r="L91" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M91" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M91" s="4" t="n">
+        <v>10.95</v>
       </c>
       <c r="N91" s="4" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="O91" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P91" s="5" t="inlineStr">
+      <c r="O91" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
         </is>
+      </c>
+      <c r="P91" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -6562,21 +7390,30 @@
         <v>5</v>
       </c>
       <c r="L92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" s="4" t="n">
+        <v>111.86</v>
+      </c>
+      <c r="N92" s="4" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="O92" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
+        </is>
+      </c>
+      <c r="P92" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="M92" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N92" s="4" t="n">
-        <v>111.86</v>
-      </c>
-      <c r="O92" s="4" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="P92" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
-        </is>
+      <c r="Q92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="93">
@@ -6628,21 +7465,30 @@
         <v>1</v>
       </c>
       <c r="L93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" s="4" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="N93" s="4" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="O93" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
+        </is>
+      </c>
+      <c r="P93" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M93" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" s="4" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="O93" s="4" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="P93" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
-        </is>
+      <c r="Q93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -6694,21 +7540,30 @@
         <v>1</v>
       </c>
       <c r="L94" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M94" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M94" s="4" t="n">
+        <v>29.99</v>
       </c>
       <c r="N94" s="4" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="O94" s="4" t="n">
         <v>24.3</v>
       </c>
-      <c r="P94" s="5" t="inlineStr">
+      <c r="O94" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
         </is>
+      </c>
+      <c r="P94" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -6760,21 +7615,30 @@
         <v>4</v>
       </c>
       <c r="L95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
+        </is>
+      </c>
+      <c r="P95" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="M95" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N95" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P95" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
-        </is>
+      <c r="Q95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" s="3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="96">
@@ -6826,21 +7690,30 @@
         <v>1</v>
       </c>
       <c r="L96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" s="4" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="N96" s="4" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="O96" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
+        </is>
+      </c>
+      <c r="P96" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M96" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" s="4" t="n">
-        <v>26.97</v>
-      </c>
-      <c r="O96" s="4" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="P96" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
-        </is>
+      <c r="Q96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -6892,21 +7765,30 @@
         <v>2</v>
       </c>
       <c r="L97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" s="4" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="N97" s="4" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="O97" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P97" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="M97" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N97" s="4" t="n">
-        <v>23.96</v>
-      </c>
-      <c r="O97" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="P97" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -6958,21 +7840,30 @@
         <v>1</v>
       </c>
       <c r="L98" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M98" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M98" s="4" t="n">
+        <v>22.29</v>
       </c>
       <c r="N98" s="4" t="n">
-        <v>22.29</v>
-      </c>
-      <c r="O98" s="4" t="n">
         <v>14.31</v>
       </c>
-      <c r="P98" s="5" t="inlineStr">
+      <c r="O98" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
         </is>
+      </c>
+      <c r="P98" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -7024,21 +7915,30 @@
         <v>2</v>
       </c>
       <c r="L99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="4" t="n">
+        <v>115.96</v>
+      </c>
+      <c r="N99" s="4" t="n">
+        <v>73.64</v>
+      </c>
+      <c r="O99" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P99" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="M99" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N99" s="4" t="n">
-        <v>115.96</v>
-      </c>
-      <c r="O99" s="4" t="n">
-        <v>73.64</v>
-      </c>
-      <c r="P99" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="100">
@@ -7090,21 +7990,30 @@
         <v>1</v>
       </c>
       <c r="L100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="4" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="N100" s="4" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="O100" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P100" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M100" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="O100" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="P100" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -7156,21 +8065,30 @@
         <v>1</v>
       </c>
       <c r="L101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" s="4" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="N101" s="4" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="O101" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P101" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M101" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" s="4" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="O101" s="4" t="n">
-        <v>30.34</v>
-      </c>
-      <c r="P101" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -7222,21 +8140,30 @@
         <v>1</v>
       </c>
       <c r="L102" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M102" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M102" s="4" t="n">
+        <v>10.5</v>
       </c>
       <c r="N102" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O102" s="4" t="n">
         <v>6.45</v>
       </c>
-      <c r="P102" s="5" t="inlineStr">
+      <c r="O102" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
         </is>
+      </c>
+      <c r="P102" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -7288,21 +8215,30 @@
         <v>1</v>
       </c>
       <c r="L103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="4" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="N103" s="4" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="O103" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P103" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M103" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" s="4" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="O103" s="4" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="P103" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -7354,21 +8290,30 @@
         <v>1</v>
       </c>
       <c r="L104" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M104" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M104" s="4" t="n">
+        <v>9.25</v>
       </c>
       <c r="N104" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="O104" s="4" t="n">
         <v>5.91</v>
       </c>
-      <c r="P104" s="5" t="inlineStr">
+      <c r="O104" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
         </is>
+      </c>
+      <c r="P104" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -7420,21 +8365,30 @@
         <v>1</v>
       </c>
       <c r="L105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" s="4" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="N105" s="4" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="O105" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P105" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M105" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" s="4" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="O105" s="4" t="n">
-        <v>25.44</v>
-      </c>
-      <c r="P105" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -7486,21 +8440,30 @@
         <v>1</v>
       </c>
       <c r="L106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" s="4" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="N106" s="4" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="O106" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P106" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M106" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" s="4" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="O106" s="4" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="P106" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -7552,21 +8515,30 @@
         <v>2</v>
       </c>
       <c r="L107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" s="4" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="N107" s="4" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="O107" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P107" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="M107" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N107" s="4" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="O107" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="P107" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -7618,21 +8590,30 @@
         <v>1</v>
       </c>
       <c r="L108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" s="4" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="N108" s="4" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="O108" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P108" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M108" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" s="4" t="n">
-        <v>29.85</v>
-      </c>
-      <c r="O108" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="P108" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="109">
@@ -7684,21 +8665,30 @@
         <v>1</v>
       </c>
       <c r="L109" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M109" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M109" s="4" t="n">
+        <v>9.49</v>
       </c>
       <c r="N109" s="4" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="O109" s="4" t="n">
         <v>6.17</v>
       </c>
-      <c r="P109" s="5" t="inlineStr">
+      <c r="O109" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
         </is>
+      </c>
+      <c r="P109" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -7750,21 +8740,30 @@
         <v>1</v>
       </c>
       <c r="L110" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M110" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M110" s="4" t="n">
+        <v>8.85</v>
       </c>
       <c r="N110" s="4" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="O110" s="4" t="n">
         <v>5.48</v>
       </c>
-      <c r="P110" s="5" t="inlineStr">
+      <c r="O110" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
         </is>
+      </c>
+      <c r="P110" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q110" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S110" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -7816,21 +8815,30 @@
         <v>1</v>
       </c>
       <c r="L111" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M111" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M111" s="4" t="n">
+        <v>19.99</v>
       </c>
       <c r="N111" s="4" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="O111" s="4" t="n">
         <v>14.92</v>
       </c>
-      <c r="P111" s="5" t="inlineStr">
+      <c r="O111" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
         </is>
+      </c>
+      <c r="P111" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -7882,21 +8890,30 @@
         <v>1</v>
       </c>
       <c r="L112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" s="4" t="n">
+        <v>52.98</v>
+      </c>
+      <c r="N112" s="4" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="O112" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P112" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M112" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" s="4" t="n">
-        <v>52.98</v>
-      </c>
-      <c r="O112" s="4" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="P112" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S112" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -7948,21 +8965,30 @@
         <v>2</v>
       </c>
       <c r="L113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" s="4" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="N113" s="4" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="O113" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P113" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="M113" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N113" s="4" t="n">
-        <v>27.96</v>
-      </c>
-      <c r="O113" s="4" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="P113" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -8014,21 +9040,30 @@
         <v>1</v>
       </c>
       <c r="L114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" s="4" t="n">
+        <v>33.98</v>
+      </c>
+      <c r="N114" s="4" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="O114" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P114" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M114" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" s="4" t="n">
-        <v>33.98</v>
-      </c>
-      <c r="O114" s="4" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="P114" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -8080,21 +9115,30 @@
         <v>1</v>
       </c>
       <c r="L115" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" s="4" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="N115" s="4" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="O115" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P115" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M115" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" s="4" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="O115" s="4" t="n">
-        <v>34.82</v>
-      </c>
-      <c r="P115" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q115" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -8146,21 +9190,30 @@
         <v>7</v>
       </c>
       <c r="L116" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="N116" s="4" t="n">
+        <v>35.64</v>
+      </c>
+      <c r="O116" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P116" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="M116" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="N116" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="O116" s="4" t="n">
-        <v>35.64</v>
-      </c>
-      <c r="P116" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q116" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" s="3" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="117">
@@ -8212,21 +9265,30 @@
         <v>4</v>
       </c>
       <c r="L117" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" s="4" t="n">
+        <v>49.39</v>
+      </c>
+      <c r="N117" s="4" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="O117" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P117" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="M117" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N117" s="4" t="n">
-        <v>49.39</v>
-      </c>
-      <c r="O117" s="4" t="n">
-        <v>29.63</v>
-      </c>
-      <c r="P117" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q117" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S117" s="3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -8278,21 +9340,30 @@
         <v>9</v>
       </c>
       <c r="L118" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" s="4" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="N118" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="O118" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P118" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="M118" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N118" s="4" t="n">
-        <v>31.05</v>
-      </c>
-      <c r="O118" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="P118" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q118" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S118" s="3" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="119">
@@ -8344,21 +9415,30 @@
         <v>1</v>
       </c>
       <c r="L119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" s="4" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="N119" s="4" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="O119" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P119" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M119" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" s="4" t="n">
-        <v>47.98</v>
-      </c>
-      <c r="O119" s="4" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="P119" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -8410,21 +9490,30 @@
         <v>1</v>
       </c>
       <c r="L120" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" s="4" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="N120" s="4" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="O120" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P120" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M120" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" s="4" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="O120" s="4" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="P120" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q120" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -8476,21 +9565,30 @@
         <v>2</v>
       </c>
       <c r="L121" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="4" t="n">
+        <v>114.75</v>
+      </c>
+      <c r="N121" s="4" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="O121" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P121" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="M121" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N121" s="4" t="n">
-        <v>114.75</v>
-      </c>
-      <c r="O121" s="4" t="n">
-        <v>82.75</v>
-      </c>
-      <c r="P121" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="Q121" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -8542,21 +9640,30 @@
         <v>1</v>
       </c>
       <c r="L122" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M122" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M122" s="4" t="n">
+        <v>3.45</v>
       </c>
       <c r="N122" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O122" s="4" t="n">
         <v>2.23</v>
       </c>
-      <c r="P122" s="5" t="inlineStr">
+      <c r="O122" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
         </is>
+      </c>
+      <c r="P122" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q122" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S122" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -8693,7 +9800,7 @@
         </is>
       </c>
       <c r="C136" s="8" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
